--- a/template/ls.xlsx
+++ b/template/ls.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/taoting/Desktop/code/python/election-s-prediction/template/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A8B2692-4900-134F-9DDA-5B551C914833}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09CBE1B6-EC84-C142-AA81-FB7F5AFBB670}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4800" yWindow="7020" windowWidth="43600" windowHeight="19760" xr2:uid="{0881E1A8-F3CD-5E46-9B58-2D8F79A3123D}"/>
   </bookViews>
@@ -45,7 +45,7 @@
   </si>
   <si>
     <t>陆生</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>编号</t>
@@ -118,21 +118,12 @@
       <rPr>
         <sz val="12"/>
         <color indexed="8"/>
-        <rFont val="仿宋_GB2312"/>
-        <family val="1"/>
+        <rFont val="等线"/>
+        <family val="4"/>
         <charset val="134"/>
+        <scheme val="minor"/>
       </rPr>
-      <t>/</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color indexed="8"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>团员</t>
+      <t>/团员</t>
     </r>
   </si>
   <si>
@@ -143,9 +134,10 @@
       <rPr>
         <sz val="12"/>
         <color indexed="8"/>
-        <rFont val="仿宋_GB2312"/>
-        <family val="1"/>
+        <rFont val="等线"/>
+        <family val="4"/>
         <charset val="134"/>
+        <scheme val="minor"/>
       </rPr>
       <t>取院校</t>
     </r>
@@ -155,7 +147,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8">
+  <fonts count="7">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -171,13 +163,6 @@
       <charset val="134"/>
     </font>
     <font>
-      <b/>
-      <sz val="20"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-    </font>
-    <font>
       <sz val="9"/>
       <name val="等线"/>
       <family val="2"/>
@@ -185,32 +170,36 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="20"/>
+      <name val="等线"/>
+      <family val="4"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <family val="3"/>
+      <name val="等线"/>
+      <family val="4"/>
       <charset val="134"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
-      <name val="宋体"/>
-      <family val="3"/>
+      <name val="等线"/>
+      <family val="4"/>
       <charset val="134"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="12"/>
       <color indexed="8"/>
-      <name val="仿宋_GB2312"/>
-      <family val="1"/>
+      <name val="等线"/>
+      <family val="4"/>
       <charset val="134"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color indexed="8"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -221,7 +210,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -270,6 +259,15 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -279,14 +277,14 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -295,13 +293,16 @@
     <xf numFmtId="49" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -622,10 +623,10 @@
   <dimension ref="A1:AD3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="V12" sqref="V12"/>
+      <selection activeCell="M12" sqref="M12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="4" width="6" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12" style="1" bestFit="1" customWidth="1"/>
@@ -646,38 +647,38 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:30" ht="26">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
-      <c r="I1" s="2"/>
-      <c r="J1" s="2"/>
-      <c r="K1" s="2"/>
-      <c r="L1" s="2"/>
-      <c r="M1" s="2"/>
-      <c r="N1" s="2"/>
-      <c r="O1" s="2"/>
-      <c r="P1" s="2"/>
-      <c r="Q1" s="2"/>
-      <c r="R1" s="2"/>
-      <c r="S1" s="2"/>
-      <c r="T1" s="2"/>
-      <c r="U1" s="2"/>
-      <c r="V1" s="2"/>
-      <c r="W1" s="2"/>
-      <c r="X1" s="2"/>
-      <c r="Y1" s="2"/>
-      <c r="Z1" s="2"/>
-      <c r="AA1" s="2"/>
-      <c r="AB1" s="2"/>
-      <c r="AC1" s="2"/>
-      <c r="AD1" s="2"/>
+      <c r="B1" s="8"/>
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
+      <c r="E1" s="8"/>
+      <c r="F1" s="8"/>
+      <c r="G1" s="8"/>
+      <c r="H1" s="8"/>
+      <c r="I1" s="8"/>
+      <c r="J1" s="8"/>
+      <c r="K1" s="8"/>
+      <c r="L1" s="8"/>
+      <c r="M1" s="8"/>
+      <c r="N1" s="8"/>
+      <c r="O1" s="8"/>
+      <c r="P1" s="8"/>
+      <c r="Q1" s="8"/>
+      <c r="R1" s="8"/>
+      <c r="S1" s="8"/>
+      <c r="T1" s="8"/>
+      <c r="U1" s="8"/>
+      <c r="V1" s="8"/>
+      <c r="W1" s="8"/>
+      <c r="X1" s="8"/>
+      <c r="Y1" s="8"/>
+      <c r="Z1" s="8"/>
+      <c r="AA1" s="8"/>
+      <c r="AB1" s="7"/>
+      <c r="AC1" s="7"/>
+      <c r="AD1" s="7"/>
     </row>
     <row r="2" spans="1:30" ht="15" customHeight="1">
       <c r="A2" s="3" t="s">
@@ -734,14 +735,14 @@
       <c r="R2" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="S2" s="5" t="s">
+      <c r="S2" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="T2" s="5"/>
-      <c r="U2" s="5"/>
-      <c r="V2" s="5"/>
-      <c r="W2" s="5"/>
-      <c r="X2" s="5"/>
+      <c r="T2" s="6"/>
+      <c r="U2" s="6"/>
+      <c r="V2" s="6"/>
+      <c r="W2" s="6"/>
+      <c r="X2" s="6"/>
       <c r="Y2" s="3" t="s">
         <v>19</v>
       </c>
@@ -752,7 +753,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="3" spans="1:30" ht="16">
+    <row r="3" spans="1:30">
       <c r="A3" s="3"/>
       <c r="B3" s="3"/>
       <c r="C3" s="3"/>
@@ -762,31 +763,31 @@
       <c r="G3" s="3"/>
       <c r="H3" s="3"/>
       <c r="I3" s="3"/>
-      <c r="J3" s="6"/>
-      <c r="K3" s="6"/>
-      <c r="L3" s="6"/>
-      <c r="M3" s="6"/>
+      <c r="J3" s="5"/>
+      <c r="K3" s="5"/>
+      <c r="L3" s="5"/>
+      <c r="M3" s="5"/>
       <c r="N3" s="3"/>
       <c r="O3" s="3"/>
       <c r="P3" s="3"/>
       <c r="Q3" s="3"/>
       <c r="R3" s="3"/>
-      <c r="S3" s="7" t="s">
+      <c r="S3" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="T3" s="7" t="s">
+      <c r="T3" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="U3" s="7" t="s">
+      <c r="U3" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="V3" s="7" t="s">
+      <c r="V3" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="W3" s="7" t="s">
+      <c r="W3" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="X3" s="7" t="s">
+      <c r="X3" s="2" t="s">
         <v>23</v>
       </c>
       <c r="Y3" s="3"/>
@@ -795,8 +796,7 @@
     </row>
   </sheetData>
   <mergeCells count="23">
-    <mergeCell ref="S2:X2"/>
-    <mergeCell ref="Y2:Y3"/>
+    <mergeCell ref="A1:AA1"/>
     <mergeCell ref="Z2:Z3"/>
     <mergeCell ref="AA2:AA3"/>
     <mergeCell ref="N2:N3"/>
@@ -804,7 +804,6 @@
     <mergeCell ref="P2:P3"/>
     <mergeCell ref="Q2:Q3"/>
     <mergeCell ref="R2:R3"/>
-    <mergeCell ref="A1:AD1"/>
     <mergeCell ref="A2:A3"/>
     <mergeCell ref="B2:B3"/>
     <mergeCell ref="C2:C3"/>
@@ -818,8 +817,10 @@
     <mergeCell ref="K2:K3"/>
     <mergeCell ref="L2:L3"/>
     <mergeCell ref="M2:M3"/>
+    <mergeCell ref="S2:X2"/>
+    <mergeCell ref="Y2:Y3"/>
   </mergeCells>
-  <phoneticPr fontId="3" type="noConversion"/>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/template/ls.xlsx
+++ b/template/ls.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10614"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/taoting/Desktop/code/python/election-s-prediction/template/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\python\election-s-prediction\template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09CBE1B6-EC84-C142-AA81-FB7F5AFBB670}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9BE06EB-3AD7-4734-857F-7D9F78890BCC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4800" yWindow="7020" windowWidth="43600" windowHeight="19760" xr2:uid="{0881E1A8-F3CD-5E46-9B58-2D8F79A3123D}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{0881E1A8-F3CD-5E46-9B58-2D8F79A3123D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,20 +20,12 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="29">
   <si>
     <t>单位职务</t>
   </si>
@@ -142,12 +134,20 @@
       <t>取院校</t>
     </r>
   </si>
+  <si>
+    <t>倾向</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>高中毕业院校</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -210,7 +210,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -233,41 +233,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -277,32 +242,29 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -623,64 +585,64 @@
   <dimension ref="A1:AD3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M12" sqref="M12"/>
+      <selection activeCell="M18" sqref="M18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="4" width="6" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="9" width="10" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="13" width="14.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="10" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="16.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="10" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="15.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="8" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="25" width="10" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="34.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="6" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="29" width="10" style="1" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="18.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="31" max="16384" width="10.83203125" style="1"/>
+    <col min="1" max="4" width="6" style="5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12" style="5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9" style="5" bestFit="1" customWidth="1"/>
+    <col min="7" max="9" width="10" style="5" bestFit="1" customWidth="1"/>
+    <col min="10" max="13" width="14.125" style="5" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10" style="5" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="16.375" style="5" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="10" style="5" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="15.375" style="5" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="8" style="5" bestFit="1" customWidth="1"/>
+    <col min="19" max="25" width="10" style="5" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="34.375" style="5" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="6" style="5" bestFit="1" customWidth="1"/>
+    <col min="28" max="29" width="10" style="5" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="18.625" style="5" bestFit="1" customWidth="1"/>
+    <col min="31" max="16384" width="10.875" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30" ht="26">
-      <c r="A1" s="8" t="s">
+    <row r="1" spans="1:30" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A1" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="8"/>
-      <c r="C1" s="8"/>
-      <c r="D1" s="8"/>
-      <c r="E1" s="8"/>
-      <c r="F1" s="8"/>
-      <c r="G1" s="8"/>
-      <c r="H1" s="8"/>
-      <c r="I1" s="8"/>
-      <c r="J1" s="8"/>
-      <c r="K1" s="8"/>
-      <c r="L1" s="8"/>
-      <c r="M1" s="8"/>
-      <c r="N1" s="8"/>
-      <c r="O1" s="8"/>
-      <c r="P1" s="8"/>
-      <c r="Q1" s="8"/>
-      <c r="R1" s="8"/>
-      <c r="S1" s="8"/>
-      <c r="T1" s="8"/>
-      <c r="U1" s="8"/>
-      <c r="V1" s="8"/>
-      <c r="W1" s="8"/>
-      <c r="X1" s="8"/>
-      <c r="Y1" s="8"/>
-      <c r="Z1" s="8"/>
-      <c r="AA1" s="8"/>
-      <c r="AB1" s="7"/>
-      <c r="AC1" s="7"/>
-      <c r="AD1" s="7"/>
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
+      <c r="F1" s="6"/>
+      <c r="G1" s="6"/>
+      <c r="H1" s="6"/>
+      <c r="I1" s="6"/>
+      <c r="J1" s="6"/>
+      <c r="K1" s="6"/>
+      <c r="L1" s="6"/>
+      <c r="M1" s="6"/>
+      <c r="N1" s="6"/>
+      <c r="O1" s="6"/>
+      <c r="P1" s="6"/>
+      <c r="Q1" s="6"/>
+      <c r="R1" s="6"/>
+      <c r="S1" s="6"/>
+      <c r="T1" s="6"/>
+      <c r="U1" s="6"/>
+      <c r="V1" s="6"/>
+      <c r="W1" s="6"/>
+      <c r="X1" s="6"/>
+      <c r="Y1" s="6"/>
+      <c r="Z1" s="6"/>
+      <c r="AA1" s="6"/>
+      <c r="AB1" s="6"/>
+      <c r="AC1" s="6"/>
+      <c r="AD1" s="2"/>
     </row>
-    <row r="2" spans="1:30" ht="15" customHeight="1">
+    <row r="2" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>4</v>
       </c>
@@ -699,128 +661,139 @@
       <c r="F2" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="G2" s="3" t="s">
+      <c r="G2" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="H2" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="H2" s="3" t="s">
+      <c r="I2" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="J2" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="I2" s="3" t="s">
+      <c r="K2" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J2" s="4" t="s">
+      <c r="L2" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="K2" s="4" t="s">
+      <c r="M2" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="L2" s="4" t="s">
+      <c r="N2" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="M2" s="4" t="s">
+      <c r="O2" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="N2" s="3" t="s">
+      <c r="P2" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="O2" s="3" t="s">
+      <c r="Q2" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="P2" s="3" t="s">
+      <c r="R2" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="Q2" s="3" t="s">
+      <c r="S2" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="R2" s="3" t="s">
+      <c r="T2" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="S2" s="6" t="s">
+      <c r="U2" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="T2" s="6"/>
-      <c r="U2" s="6"/>
-      <c r="V2" s="6"/>
-      <c r="W2" s="6"/>
-      <c r="X2" s="6"/>
-      <c r="Y2" s="3" t="s">
+      <c r="V2" s="4"/>
+      <c r="W2" s="4"/>
+      <c r="X2" s="4"/>
+      <c r="Y2" s="4"/>
+      <c r="Z2" s="4"/>
+      <c r="AA2" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="Z2" s="3" t="s">
+      <c r="AB2" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="AA2" s="3" t="s">
+      <c r="AC2" s="3" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="3" spans="1:30">
+    <row r="3" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A3" s="3"/>
       <c r="B3" s="3"/>
       <c r="C3" s="3"/>
       <c r="D3" s="3"/>
       <c r="E3" s="3"/>
       <c r="F3" s="3"/>
-      <c r="G3" s="3"/>
+      <c r="G3" s="7"/>
       <c r="H3" s="3"/>
-      <c r="I3" s="3"/>
-      <c r="J3" s="5"/>
-      <c r="K3" s="5"/>
-      <c r="L3" s="5"/>
-      <c r="M3" s="5"/>
+      <c r="I3" s="7"/>
+      <c r="J3" s="3"/>
+      <c r="K3" s="3"/>
+      <c r="L3" s="3"/>
+      <c r="M3" s="3"/>
       <c r="N3" s="3"/>
       <c r="O3" s="3"/>
       <c r="P3" s="3"/>
       <c r="Q3" s="3"/>
       <c r="R3" s="3"/>
-      <c r="S3" s="2" t="s">
+      <c r="S3" s="3"/>
+      <c r="T3" s="3"/>
+      <c r="U3" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="T3" s="2" t="s">
+      <c r="V3" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="U3" s="2" t="s">
+      <c r="W3" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="V3" s="2" t="s">
+      <c r="X3" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="W3" s="2" t="s">
+      <c r="Y3" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="X3" s="2" t="s">
+      <c r="Z3" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="Y3" s="3"/>
-      <c r="Z3" s="3"/>
       <c r="AA3" s="3"/>
+      <c r="AB3" s="3"/>
+      <c r="AC3" s="3"/>
     </row>
   </sheetData>
-  <mergeCells count="23">
-    <mergeCell ref="A1:AA1"/>
-    <mergeCell ref="Z2:Z3"/>
+  <mergeCells count="25">
+    <mergeCell ref="U2:Z2"/>
     <mergeCell ref="AA2:AA3"/>
+    <mergeCell ref="G2:G3"/>
+    <mergeCell ref="I2:I3"/>
+    <mergeCell ref="A1:AC1"/>
+    <mergeCell ref="K2:K3"/>
+    <mergeCell ref="L2:L3"/>
+    <mergeCell ref="M2:M3"/>
     <mergeCell ref="N2:N3"/>
     <mergeCell ref="O2:O3"/>
+    <mergeCell ref="AB2:AB3"/>
+    <mergeCell ref="AC2:AC3"/>
     <mergeCell ref="P2:P3"/>
     <mergeCell ref="Q2:Q3"/>
     <mergeCell ref="R2:R3"/>
+    <mergeCell ref="S2:S3"/>
+    <mergeCell ref="T2:T3"/>
     <mergeCell ref="A2:A3"/>
     <mergeCell ref="B2:B3"/>
     <mergeCell ref="C2:C3"/>
     <mergeCell ref="D2:D3"/>
     <mergeCell ref="E2:E3"/>
     <mergeCell ref="F2:F3"/>
-    <mergeCell ref="G2:G3"/>
     <mergeCell ref="H2:H3"/>
-    <mergeCell ref="I2:I3"/>
     <mergeCell ref="J2:J3"/>
-    <mergeCell ref="K2:K3"/>
-    <mergeCell ref="L2:L3"/>
-    <mergeCell ref="M2:M3"/>
-    <mergeCell ref="S2:X2"/>
-    <mergeCell ref="Y2:Y3"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/template/ls.xlsx
+++ b/template/ls.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\python\election-s-prediction\template\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\WorkPlace\台胞项目\election-s-prediction\template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9BE06EB-3AD7-4734-857F-7D9F78890BCC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{922774F9-C189-4093-BEAB-978C91FDC668}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{0881E1A8-F3CD-5E46-9B58-2D8F79A3123D}"/>
   </bookViews>
@@ -67,9 +67,6 @@
     <t>硕士就读专业</t>
   </si>
   <si>
-    <t>手机号码</t>
-  </si>
-  <si>
     <t>参加社团及职务</t>
   </si>
   <si>
@@ -140,6 +137,10 @@
   </si>
   <si>
     <t>高中毕业院校</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>联系方式</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -252,19 +253,19 @@
     <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -585,187 +586,196 @@
   <dimension ref="A1:AD3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M18" sqref="M18"/>
+      <selection activeCell="P2" sqref="P2:P3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="4" width="6" style="5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12" style="5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9" style="5" bestFit="1" customWidth="1"/>
-    <col min="7" max="9" width="10" style="5" bestFit="1" customWidth="1"/>
-    <col min="10" max="13" width="14.125" style="5" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="10" style="5" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="16.375" style="5" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="10" style="5" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="15.375" style="5" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="8" style="5" bestFit="1" customWidth="1"/>
-    <col min="19" max="25" width="10" style="5" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="34.375" style="5" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="6" style="5" bestFit="1" customWidth="1"/>
-    <col min="28" max="29" width="10" style="5" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="18.625" style="5" bestFit="1" customWidth="1"/>
-    <col min="31" max="16384" width="10.875" style="5"/>
+    <col min="1" max="4" width="6" style="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12" style="3" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9" style="3" bestFit="1" customWidth="1"/>
+    <col min="7" max="9" width="10" style="3" bestFit="1" customWidth="1"/>
+    <col min="10" max="13" width="14.125" style="3" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10" style="3" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="16.375" style="3" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="10" style="3" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="15.375" style="3" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="8" style="3" bestFit="1" customWidth="1"/>
+    <col min="19" max="25" width="10" style="3" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="34.375" style="3" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="6" style="3" bestFit="1" customWidth="1"/>
+    <col min="28" max="29" width="10" style="3" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="18.625" style="3" bestFit="1" customWidth="1"/>
+    <col min="31" max="16384" width="10.875" style="3"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:30" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="6"/>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6"/>
-      <c r="E1" s="6"/>
-      <c r="F1" s="6"/>
-      <c r="G1" s="6"/>
-      <c r="H1" s="6"/>
-      <c r="I1" s="6"/>
-      <c r="J1" s="6"/>
-      <c r="K1" s="6"/>
-      <c r="L1" s="6"/>
-      <c r="M1" s="6"/>
-      <c r="N1" s="6"/>
-      <c r="O1" s="6"/>
-      <c r="P1" s="6"/>
-      <c r="Q1" s="6"/>
-      <c r="R1" s="6"/>
-      <c r="S1" s="6"/>
-      <c r="T1" s="6"/>
-      <c r="U1" s="6"/>
-      <c r="V1" s="6"/>
-      <c r="W1" s="6"/>
-      <c r="X1" s="6"/>
-      <c r="Y1" s="6"/>
-      <c r="Z1" s="6"/>
-      <c r="AA1" s="6"/>
-      <c r="AB1" s="6"/>
-      <c r="AC1" s="6"/>
+      <c r="B1" s="7"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
+      <c r="F1" s="7"/>
+      <c r="G1" s="7"/>
+      <c r="H1" s="7"/>
+      <c r="I1" s="7"/>
+      <c r="J1" s="7"/>
+      <c r="K1" s="7"/>
+      <c r="L1" s="7"/>
+      <c r="M1" s="7"/>
+      <c r="N1" s="7"/>
+      <c r="O1" s="7"/>
+      <c r="P1" s="7"/>
+      <c r="Q1" s="7"/>
+      <c r="R1" s="7"/>
+      <c r="S1" s="7"/>
+      <c r="T1" s="7"/>
+      <c r="U1" s="7"/>
+      <c r="V1" s="7"/>
+      <c r="W1" s="7"/>
+      <c r="X1" s="7"/>
+      <c r="Y1" s="7"/>
+      <c r="Z1" s="7"/>
+      <c r="AA1" s="7"/>
+      <c r="AB1" s="7"/>
+      <c r="AC1" s="7"/>
       <c r="AD1" s="2"/>
     </row>
     <row r="2" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="E2" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="F2" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="G2" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="H2" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="I2" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="J2" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="G2" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="H2" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="I2" s="7" t="s">
+      <c r="K2" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="L2" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="M2" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="N2" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="O2" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="P2" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="J2" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="K2" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="L2" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="M2" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="N2" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="O2" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="P2" s="3" t="s">
+      <c r="Q2" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="Q2" s="3" t="s">
+      <c r="R2" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="R2" s="3" t="s">
+      <c r="S2" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="S2" s="3" t="s">
+      <c r="T2" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="T2" s="3" t="s">
+      <c r="U2" s="4" t="s">
         <v>17</v>
-      </c>
-      <c r="U2" s="4" t="s">
-        <v>18</v>
       </c>
       <c r="V2" s="4"/>
       <c r="W2" s="4"/>
       <c r="X2" s="4"/>
       <c r="Y2" s="4"/>
       <c r="Z2" s="4"/>
-      <c r="AA2" s="3" t="s">
+      <c r="AA2" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="AB2" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="AB2" s="3" t="s">
+      <c r="AC2" s="5" t="s">
         <v>20</v>
-      </c>
-      <c r="AC2" s="3" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="3" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A3" s="3"/>
-      <c r="B3" s="3"/>
-      <c r="C3" s="3"/>
-      <c r="D3" s="3"/>
-      <c r="E3" s="3"/>
-      <c r="F3" s="3"/>
-      <c r="G3" s="7"/>
-      <c r="H3" s="3"/>
-      <c r="I3" s="7"/>
-      <c r="J3" s="3"/>
-      <c r="K3" s="3"/>
-      <c r="L3" s="3"/>
-      <c r="M3" s="3"/>
-      <c r="N3" s="3"/>
-      <c r="O3" s="3"/>
-      <c r="P3" s="3"/>
-      <c r="Q3" s="3"/>
-      <c r="R3" s="3"/>
-      <c r="S3" s="3"/>
-      <c r="T3" s="3"/>
+      <c r="A3" s="5"/>
+      <c r="B3" s="5"/>
+      <c r="C3" s="5"/>
+      <c r="D3" s="5"/>
+      <c r="E3" s="5"/>
+      <c r="F3" s="5"/>
+      <c r="G3" s="6"/>
+      <c r="H3" s="5"/>
+      <c r="I3" s="6"/>
+      <c r="J3" s="5"/>
+      <c r="K3" s="5"/>
+      <c r="L3" s="5"/>
+      <c r="M3" s="5"/>
+      <c r="N3" s="5"/>
+      <c r="O3" s="5"/>
+      <c r="P3" s="5"/>
+      <c r="Q3" s="5"/>
+      <c r="R3" s="5"/>
+      <c r="S3" s="5"/>
+      <c r="T3" s="5"/>
       <c r="U3" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="V3" s="1" t="s">
         <v>0</v>
       </c>
       <c r="W3" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="X3" s="1" t="s">
         <v>23</v>
-      </c>
-      <c r="X3" s="1" t="s">
-        <v>24</v>
       </c>
       <c r="Y3" s="1" t="s">
         <v>0</v>
       </c>
       <c r="Z3" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="AA3" s="3"/>
-      <c r="AB3" s="3"/>
-      <c r="AC3" s="3"/>
+        <v>22</v>
+      </c>
+      <c r="AA3" s="5"/>
+      <c r="AB3" s="5"/>
+      <c r="AC3" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="25">
+    <mergeCell ref="T2:T3"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="E2:E3"/>
+    <mergeCell ref="F2:F3"/>
+    <mergeCell ref="H2:H3"/>
+    <mergeCell ref="J2:J3"/>
     <mergeCell ref="U2:Z2"/>
     <mergeCell ref="AA2:AA3"/>
     <mergeCell ref="G2:G3"/>
@@ -782,15 +792,6 @@
     <mergeCell ref="Q2:Q3"/>
     <mergeCell ref="R2:R3"/>
     <mergeCell ref="S2:S3"/>
-    <mergeCell ref="T2:T3"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="C2:C3"/>
-    <mergeCell ref="D2:D3"/>
-    <mergeCell ref="E2:E3"/>
-    <mergeCell ref="F2:F3"/>
-    <mergeCell ref="H2:H3"/>
-    <mergeCell ref="J2:J3"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
